--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\Generate_Yearly_Report_Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE9A4DC-9577-439C-A9AD-AC3FCE0DBF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C00EA3-EDBC-4F41-A474-D0E8FA9E3955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
